--- a/input/timetable/ИВТ.xlsx
+++ b/input/timetable/ИВТ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D9705-ED53-4DCA-9456-45646F97727F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13530"/>
+    <workbookView xWindow="-21645" yWindow="660" windowWidth="26010" windowHeight="14070" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 курс" sheetId="25" r:id="rId1"/>
@@ -698,7 +699,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1868,139 +1869,124 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2020,19 +2006,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2042,70 +2018,140 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2116,30 +2162,42 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2148,24 +2206,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2179,137 +2219,19 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2331,6 +2253,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2348,6 +2273,105 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2356,134 +2380,111 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="3"/>
-    <cellStyle name="Обычный 3" xfId="4"/>
+    <cellStyle name="Обычный 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2575,6 +2576,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2610,6 +2628,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2785,11 +2820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2949,10 +2984,10 @@
       <c r="A8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="61" t="s">
         <v>102</v>
       </c>
@@ -2962,10 +2997,10 @@
       <c r="H8" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="157" t="s">
+      <c r="J8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="157"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="61" t="s">
         <v>103</v>
       </c>
@@ -3028,12 +3063,12 @@
       <c r="B11" s="15">
         <v>1</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="166"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="151"/>
       <c r="G11" s="80" t="s">
         <v>36</v>
       </c>
@@ -3043,12 +3078,12 @@
       <c r="I11" s="15">
         <v>1</v>
       </c>
-      <c r="J11" s="164" t="s">
+      <c r="J11" s="149" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="166"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="151"/>
       <c r="N11" s="80" t="s">
         <v>36</v>
       </c>
@@ -3058,12 +3093,12 @@
       <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="77" t="s">
         <v>108</v>
       </c>
@@ -3071,14 +3106,14 @@
       <c r="I12" s="17">
         <v>2</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="121" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="105"/>
-      <c r="L12" s="192" t="s">
+      <c r="K12" s="189"/>
+      <c r="L12" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="131"/>
+      <c r="M12" s="100"/>
       <c r="N12" s="77" t="s">
         <v>114</v>
       </c>
@@ -3088,14 +3123,14 @@
       <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="99" t="s">
+      <c r="D13" s="108"/>
+      <c r="E13" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="77" t="s">
         <v>116</v>
       </c>
@@ -3103,12 +3138,12 @@
       <c r="I13" s="17">
         <v>3</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="121" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="131"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="100"/>
       <c r="N13" s="77" t="s">
         <v>108</v>
       </c>
@@ -3118,12 +3153,12 @@
       <c r="B14" s="19">
         <v>4</v>
       </c>
-      <c r="C14" s="196"/>
-      <c r="D14" s="197"/>
-      <c r="E14" s="198" t="s">
+      <c r="C14" s="114"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="199"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="79" t="s">
         <v>35</v>
       </c>
@@ -3131,10 +3166,10 @@
       <c r="I14" s="19">
         <v>4</v>
       </c>
-      <c r="J14" s="169"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="171"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="103"/>
       <c r="N14" s="79"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -3144,10 +3179,10 @@
       <c r="B15" s="21">
         <v>1</v>
       </c>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="22"/>
       <c r="H15" s="20" t="s">
         <v>22</v>
@@ -3155,12 +3190,12 @@
       <c r="I15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="101"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="178" t="s">
+      <c r="J15" s="158"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="M15" s="114"/>
+      <c r="M15" s="127"/>
       <c r="N15" s="80" t="s">
         <v>118</v>
       </c>
@@ -3170,12 +3205,12 @@
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="77" t="s">
         <v>74</v>
       </c>
@@ -3183,12 +3218,12 @@
       <c r="I16" s="17">
         <v>2</v>
       </c>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="137"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="120"/>
       <c r="N16" s="77" t="s">
         <v>74</v>
       </c>
@@ -3198,12 +3233,12 @@
       <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="167" t="s">
+      <c r="C17" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="149"/>
-      <c r="F17" s="150"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
       <c r="G17" s="77" t="s">
         <v>109</v>
       </c>
@@ -3211,12 +3246,12 @@
       <c r="I17" s="17">
         <v>3</v>
       </c>
-      <c r="J17" s="147" t="s">
+      <c r="J17" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="148"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="168"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="154"/>
       <c r="N17" s="77" t="s">
         <v>110</v>
       </c>
@@ -3226,14 +3261,14 @@
       <c r="B18" s="17">
         <v>4</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136" t="s">
+      <c r="D18" s="119"/>
+      <c r="E18" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="137"/>
+      <c r="F18" s="120"/>
       <c r="G18" s="77" t="s">
         <v>204</v>
       </c>
@@ -3241,12 +3276,12 @@
       <c r="I18" s="17">
         <v>4</v>
       </c>
-      <c r="J18" s="104" t="s">
+      <c r="J18" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="100"/>
       <c r="N18" s="77" t="s">
         <v>36</v>
       </c>
@@ -3256,12 +3291,12 @@
       <c r="B19" s="19">
         <v>5</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="197" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
       <c r="G19" s="79" t="s">
         <v>74</v>
       </c>
@@ -3269,10 +3304,10 @@
       <c r="I19" s="19">
         <v>5</v>
       </c>
-      <c r="J19" s="169"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="171"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="103"/>
       <c r="N19" s="65"/>
     </row>
     <row r="20" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3282,12 +3317,12 @@
       <c r="B20" s="21">
         <v>1</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="174"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="157"/>
       <c r="G20" s="77" t="s">
         <v>106</v>
       </c>
@@ -3297,10 +3332,10 @@
       <c r="I20" s="21">
         <v>1</v>
       </c>
-      <c r="J20" s="179"/>
-      <c r="K20" s="180"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="181"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="130"/>
       <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.4">
@@ -3308,21 +3343,21 @@
       <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="168"/>
       <c r="G21" s="75"/>
       <c r="H21" s="16"/>
       <c r="I21" s="17">
         <v>2</v>
       </c>
-      <c r="J21" s="104" t="s">
+      <c r="J21" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="131"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="100"/>
       <c r="N21" s="77" t="s">
         <v>106</v>
       </c>
@@ -3332,14 +3367,14 @@
       <c r="B22" s="17">
         <v>3</v>
       </c>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="177"/>
-      <c r="E22" s="99" t="s">
+      <c r="D22" s="108"/>
+      <c r="E22" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="100"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="77" t="s">
         <v>45</v>
       </c>
@@ -3347,10 +3382,10 @@
       <c r="I22" s="17">
         <v>3</v>
       </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="168"/>
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3358,12 +3393,12 @@
       <c r="B23" s="17">
         <v>4</v>
       </c>
-      <c r="C23" s="167" t="s">
+      <c r="C23" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="150"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
       <c r="G23" s="77" t="s">
         <v>36</v>
       </c>
@@ -3371,14 +3406,14 @@
       <c r="I23" s="17">
         <v>4</v>
       </c>
-      <c r="J23" s="135" t="s">
+      <c r="J23" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136" t="s">
+      <c r="K23" s="119"/>
+      <c r="L23" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="137"/>
+      <c r="M23" s="120"/>
       <c r="N23" s="77" t="s">
         <v>45</v>
       </c>
@@ -3386,17 +3421,17 @@
     <row r="24" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="171"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="103"/>
       <c r="G24" s="79"/>
       <c r="H24" s="23"/>
       <c r="I24" s="19"/>
-      <c r="J24" s="158"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="159"/>
-      <c r="M24" s="160"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="145"/>
       <c r="N24" s="79"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -3406,12 +3441,12 @@
       <c r="B25" s="21">
         <v>1</v>
       </c>
-      <c r="C25" s="112" t="s">
+      <c r="C25" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="127"/>
       <c r="G25" s="77" t="s">
         <v>35</v>
       </c>
@@ -3421,12 +3456,12 @@
       <c r="I25" s="21">
         <v>1</v>
       </c>
-      <c r="J25" s="161" t="s">
+      <c r="J25" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="163"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="148"/>
       <c r="N25" s="77" t="s">
         <v>35</v>
       </c>
@@ -3436,12 +3471,12 @@
       <c r="B26" s="17">
         <v>2</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="77" t="s">
         <v>62</v>
       </c>
@@ -3449,12 +3484,12 @@
       <c r="I26" s="17">
         <v>2</v>
       </c>
-      <c r="J26" s="104" t="s">
+      <c r="J26" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="130"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="131"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="100"/>
       <c r="N26" s="77" t="s">
         <v>62</v>
       </c>
@@ -3464,19 +3499,19 @@
       <c r="B27" s="17">
         <v>3</v>
       </c>
-      <c r="C27" s="115"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="117"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="168"/>
       <c r="G27" s="77"/>
       <c r="H27" s="16"/>
       <c r="I27" s="17">
         <v>3</v>
       </c>
-      <c r="J27" s="127"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="129"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
+      <c r="M27" s="125"/>
       <c r="N27" s="77"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3484,12 +3519,12 @@
       <c r="B28" s="19">
         <v>4</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="192"/>
+      <c r="F28" s="193"/>
       <c r="G28" s="79" t="s">
         <v>37</v>
       </c>
@@ -3497,12 +3532,12 @@
       <c r="I28" s="19">
         <v>4</v>
       </c>
-      <c r="J28" s="109" t="s">
+      <c r="J28" s="184" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="186"/>
       <c r="N28" s="79" t="s">
         <v>37</v>
       </c>
@@ -3514,10 +3549,10 @@
       <c r="B29" s="21">
         <v>1</v>
       </c>
-      <c r="C29" s="193"/>
-      <c r="D29" s="194"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="195"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="113"/>
       <c r="G29" s="76"/>
       <c r="H29" s="20" t="s">
         <v>25</v>
@@ -3525,12 +3560,12 @@
       <c r="I29" s="21">
         <v>1</v>
       </c>
-      <c r="J29" s="189" t="s">
+      <c r="J29" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="K29" s="190"/>
-      <c r="L29" s="190"/>
-      <c r="M29" s="191"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="141"/>
       <c r="N29" s="87" t="s">
         <v>108</v>
       </c>
@@ -3540,12 +3575,12 @@
       <c r="B30" s="17">
         <v>2</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="150"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="106"/>
       <c r="G30" s="77" t="s">
         <v>108</v>
       </c>
@@ -3553,14 +3588,14 @@
       <c r="I30" s="17">
         <v>2</v>
       </c>
-      <c r="J30" s="147" t="s">
+      <c r="J30" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="K30" s="148"/>
-      <c r="L30" s="149" t="s">
+      <c r="K30" s="153"/>
+      <c r="L30" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="150"/>
+      <c r="M30" s="106"/>
       <c r="N30" s="86" t="s">
         <v>222</v>
       </c>
@@ -3570,14 +3605,14 @@
       <c r="B31" s="17">
         <v>3</v>
       </c>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="99" t="s">
+      <c r="D31" s="108"/>
+      <c r="E31" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="110"/>
       <c r="G31" s="77" t="s">
         <v>115</v>
       </c>
@@ -3585,14 +3620,14 @@
       <c r="I31" s="17">
         <v>3</v>
       </c>
-      <c r="J31" s="135" t="s">
+      <c r="J31" s="118" t="s">
         <v>126</v>
       </c>
-      <c r="K31" s="136"/>
-      <c r="L31" s="185" t="s">
+      <c r="K31" s="119"/>
+      <c r="L31" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="M31" s="186"/>
+      <c r="M31" s="135"/>
       <c r="N31" s="86" t="s">
         <v>223</v>
       </c>
@@ -3602,21 +3637,21 @@
       <c r="B32" s="19">
         <v>4</v>
       </c>
-      <c r="C32" s="169"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="171"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
       <c r="G32" s="79"/>
       <c r="H32" s="28"/>
       <c r="I32" s="19">
         <v>4</v>
       </c>
-      <c r="J32" s="118" t="s">
+      <c r="J32" s="136" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="187"/>
-      <c r="L32" s="188"/>
-      <c r="M32" s="171"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="103"/>
       <c r="N32" s="79" t="s">
         <v>117</v>
       </c>
@@ -3628,12 +3663,12 @@
       <c r="B33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="121" t="s">
+      <c r="C33" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="123"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="196"/>
       <c r="G33" s="78" t="s">
         <v>63</v>
       </c>
@@ -3643,12 +3678,12 @@
       <c r="I33" s="15">
         <v>1</v>
       </c>
-      <c r="J33" s="144" t="s">
+      <c r="J33" s="172" t="s">
         <v>113</v>
       </c>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="146"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="174"/>
       <c r="N33" s="78" t="s">
         <v>63</v>
       </c>
@@ -3658,12 +3693,12 @@
       <c r="B34" s="17">
         <v>2</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="175" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="126"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="177"/>
       <c r="G34" s="86" t="s">
         <v>63</v>
       </c>
@@ -3671,12 +3706,12 @@
       <c r="I34" s="17">
         <v>2</v>
       </c>
-      <c r="J34" s="124" t="s">
+      <c r="J34" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="126"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="177"/>
       <c r="N34" s="86" t="s">
         <v>106</v>
       </c>
@@ -3686,19 +3721,19 @@
       <c r="B35" s="17">
         <v>3</v>
       </c>
-      <c r="C35" s="127"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="129"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="42"/>
       <c r="H35" s="26"/>
       <c r="I35" s="17">
         <v>3</v>
       </c>
-      <c r="J35" s="182"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="183"/>
-      <c r="M35" s="184"/>
+      <c r="J35" s="131"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="132"/>
+      <c r="M35" s="133"/>
       <c r="N35" s="42"/>
     </row>
     <row r="36" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3706,12 +3741,12 @@
       <c r="B36" s="19">
         <v>4</v>
       </c>
-      <c r="C36" s="109" t="s">
+      <c r="C36" s="184" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="110"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="111"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="79" t="s">
         <v>106</v>
       </c>
@@ -3719,26 +3754,26 @@
       <c r="I36" s="19">
         <v>4</v>
       </c>
-      <c r="J36" s="141"/>
-      <c r="K36" s="142"/>
-      <c r="L36" s="142"/>
-      <c r="M36" s="143"/>
+      <c r="J36" s="169"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
+      <c r="M36" s="171"/>
       <c r="N36" s="65"/>
     </row>
     <row r="37" spans="1:14" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="33"/>
       <c r="B37" s="34"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="153"/>
+      <c r="C37" s="178"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="180"/>
       <c r="G37" s="35"/>
       <c r="H37" s="36"/>
       <c r="I37" s="34"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="155"/>
-      <c r="L37" s="155"/>
-      <c r="M37" s="156"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="182"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="183"/>
       <c r="N37" s="37"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
@@ -3746,23 +3781,23 @@
       <c r="B38" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="138" t="s">
+      <c r="C38" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="140"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="39"/>
       <c r="H38" s="38"/>
       <c r="I38" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="138" t="s">
+      <c r="J38" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="140"/>
+      <c r="K38" s="164"/>
+      <c r="L38" s="164"/>
+      <c r="M38" s="165"/>
       <c r="N38" s="39"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3770,12 +3805,12 @@
       <c r="B39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="106" t="s">
+      <c r="C39" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="108"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="162"/>
       <c r="G39" s="84" t="s">
         <v>50</v>
       </c>
@@ -3783,12 +3818,12 @@
       <c r="I39" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J39" s="106" t="s">
+      <c r="J39" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="108"/>
+      <c r="K39" s="161"/>
+      <c r="L39" s="161"/>
+      <c r="M39" s="162"/>
       <c r="N39" s="84" t="s">
         <v>50</v>
       </c>
@@ -3823,6 +3858,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J21:M21"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="C30:F30"/>
@@ -3839,62 +3930,6 @@
     <mergeCell ref="J27:M27"/>
     <mergeCell ref="J19:M19"/>
     <mergeCell ref="J16:M16"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E9">
     <cfRule type="expression" priority="6">
@@ -3927,8 +3962,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7 J7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 L6">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7 J7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 L6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"осенний, весенний"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3938,14 +3973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3956,7 +3991,7 @@
     <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" style="1" customWidth="1"/>
@@ -4105,10 +4140,10 @@
       <c r="A8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="61" t="s">
         <v>58</v>
       </c>
@@ -4118,10 +4153,10 @@
       <c r="H8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="157" t="s">
+      <c r="J8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="157"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="61" t="s">
         <v>59</v>
       </c>
@@ -4188,12 +4223,12 @@
       <c r="B11" s="15">
         <v>1</v>
       </c>
-      <c r="C11" s="211" t="s">
+      <c r="C11" s="234" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="213"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="236"/>
       <c r="G11" s="80" t="s">
         <v>132</v>
       </c>
@@ -4203,12 +4238,12 @@
       <c r="I11" s="15">
         <v>1</v>
       </c>
-      <c r="J11" s="211" t="s">
+      <c r="J11" s="234" t="s">
         <v>199</v>
       </c>
-      <c r="K11" s="212"/>
-      <c r="L11" s="212"/>
-      <c r="M11" s="213"/>
+      <c r="K11" s="235"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="236"/>
       <c r="N11" s="80" t="s">
         <v>132</v>
       </c>
@@ -4218,12 +4253,12 @@
       <c r="B12" s="17">
         <v>2</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C12" s="121" t="s">
         <v>200</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="86" t="s">
         <v>133</v>
       </c>
@@ -4231,12 +4266,12 @@
       <c r="I12" s="17">
         <v>2</v>
       </c>
-      <c r="J12" s="104" t="s">
+      <c r="J12" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="131"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="100"/>
       <c r="N12" s="77" t="s">
         <v>134</v>
       </c>
@@ -4246,12 +4281,12 @@
       <c r="B13" s="17">
         <v>3</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="88" t="s">
         <v>45</v>
       </c>
@@ -4259,12 +4294,12 @@
       <c r="I13" s="17">
         <v>3</v>
       </c>
-      <c r="J13" s="104" t="s">
+      <c r="J13" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="130"/>
-      <c r="L13" s="130"/>
-      <c r="M13" s="131"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="100"/>
       <c r="N13" s="88" t="s">
         <v>45</v>
       </c>
@@ -4274,12 +4309,12 @@
       <c r="B14" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="223" t="s">
+      <c r="C14" s="240" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="225"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="242"/>
       <c r="G14" s="65"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19" t="s">
@@ -4300,12 +4335,12 @@
       <c r="B15" s="21">
         <v>1</v>
       </c>
-      <c r="C15" s="220" t="s">
+      <c r="C15" s="237" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="222"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="239"/>
       <c r="G15" s="80" t="s">
         <v>44</v>
       </c>
@@ -4315,12 +4350,12 @@
       <c r="I15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="226" t="s">
+      <c r="J15" s="218" t="s">
         <v>148</v>
       </c>
-      <c r="K15" s="227"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="228"/>
+      <c r="K15" s="219"/>
+      <c r="L15" s="219"/>
+      <c r="M15" s="220"/>
       <c r="N15" s="80" t="s">
         <v>147</v>
       </c>
@@ -4330,12 +4365,12 @@
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="150"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="106"/>
       <c r="G16" s="77" t="s">
         <v>44</v>
       </c>
@@ -4343,12 +4378,12 @@
       <c r="I16" s="17">
         <v>2</v>
       </c>
-      <c r="J16" s="167" t="s">
+      <c r="J16" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="150"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
       <c r="N16" s="77" t="s">
         <v>44</v>
       </c>
@@ -4358,14 +4393,14 @@
       <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136" t="s">
+      <c r="D17" s="119"/>
+      <c r="E17" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="137"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="77" t="s">
         <v>141</v>
       </c>
@@ -4373,12 +4408,12 @@
       <c r="I17" s="17">
         <v>3</v>
       </c>
-      <c r="J17" s="229" t="s">
+      <c r="J17" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="185"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="117"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="167"/>
+      <c r="M17" s="168"/>
       <c r="N17" s="77" t="s">
         <v>146</v>
       </c>
@@ -4388,14 +4423,14 @@
       <c r="B18" s="17">
         <v>4</v>
       </c>
-      <c r="C18" s="203" t="s">
+      <c r="C18" s="243" t="s">
         <v>198</v>
       </c>
-      <c r="D18" s="204"/>
-      <c r="E18" s="205" t="s">
+      <c r="D18" s="244"/>
+      <c r="E18" s="245" t="s">
         <v>142</v>
       </c>
-      <c r="F18" s="206"/>
+      <c r="F18" s="246"/>
       <c r="G18" s="85" t="s">
         <v>143</v>
       </c>
@@ -4403,10 +4438,10 @@
       <c r="I18" s="17">
         <v>4</v>
       </c>
-      <c r="J18" s="233"/>
-      <c r="K18" s="234"/>
-      <c r="L18" s="234"/>
-      <c r="M18" s="235"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="227"/>
       <c r="N18" s="77"/>
     </row>
     <row r="19" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -4416,14 +4451,14 @@
       <c r="B19" s="21">
         <v>1</v>
       </c>
-      <c r="C19" s="245" t="s">
+      <c r="C19" s="204" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="246"/>
-      <c r="E19" s="246" t="s">
+      <c r="D19" s="205"/>
+      <c r="E19" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="247"/>
+      <c r="F19" s="206"/>
       <c r="G19" s="87" t="s">
         <v>137</v>
       </c>
@@ -4433,10 +4468,10 @@
       <c r="I19" s="21">
         <v>1</v>
       </c>
-      <c r="J19" s="214"/>
-      <c r="K19" s="215"/>
-      <c r="L19" s="215"/>
-      <c r="M19" s="216"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="201"/>
       <c r="N19" s="77"/>
     </row>
     <row r="20" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4444,12 +4479,12 @@
       <c r="B20" s="17">
         <v>2</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="118" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="192"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="86" t="s">
         <v>44</v>
       </c>
@@ -4457,14 +4492,14 @@
       <c r="I20" s="17">
         <v>2</v>
       </c>
-      <c r="J20" s="135" t="s">
+      <c r="J20" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136" t="s">
+      <c r="K20" s="119"/>
+      <c r="L20" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="M20" s="137"/>
+      <c r="M20" s="120"/>
       <c r="N20" s="77" t="s">
         <v>137</v>
       </c>
@@ -4474,12 +4509,12 @@
       <c r="B21" s="27">
         <v>3</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="192"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="86" t="s">
         <v>108</v>
       </c>
@@ -4487,12 +4522,12 @@
       <c r="I21" s="27">
         <v>3</v>
       </c>
-      <c r="J21" s="230" t="s">
+      <c r="J21" s="222" t="s">
         <v>151</v>
       </c>
-      <c r="K21" s="231"/>
-      <c r="L21" s="231"/>
-      <c r="M21" s="232"/>
+      <c r="K21" s="223"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="224"/>
       <c r="N21" s="77" t="s">
         <v>44</v>
       </c>
@@ -4502,12 +4537,12 @@
       <c r="B22" s="27">
         <v>4</v>
       </c>
-      <c r="C22" s="104" t="s">
+      <c r="C22" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="86" t="s">
         <v>43</v>
       </c>
@@ -4515,12 +4550,12 @@
       <c r="I22" s="27">
         <v>4</v>
       </c>
-      <c r="J22" s="135" t="s">
+      <c r="J22" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="120"/>
       <c r="N22" s="78" t="s">
         <v>43</v>
       </c>
@@ -4530,23 +4565,23 @@
       <c r="B23" s="19">
         <v>5</v>
       </c>
-      <c r="C23" s="207"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="188"/>
+      <c r="C23" s="202"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="138"/>
       <c r="G23" s="84"/>
       <c r="H23" s="94"/>
       <c r="I23" s="19">
         <v>5</v>
       </c>
-      <c r="J23" s="132" t="s">
+      <c r="J23" s="197" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133" t="s">
+      <c r="K23" s="198"/>
+      <c r="L23" s="198" t="s">
         <v>125</v>
       </c>
-      <c r="M23" s="134"/>
+      <c r="M23" s="199"/>
       <c r="N23" s="77" t="s">
         <v>77</v>
       </c>
@@ -4558,12 +4593,12 @@
       <c r="B24" s="15">
         <v>1</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="194" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="123"/>
+      <c r="D24" s="195"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="196"/>
       <c r="G24" s="90" t="s">
         <v>139</v>
       </c>
@@ -4573,12 +4608,12 @@
       <c r="I24" s="15">
         <v>1</v>
       </c>
-      <c r="J24" s="121" t="s">
+      <c r="J24" s="194" t="s">
         <v>153</v>
       </c>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="123"/>
+      <c r="K24" s="195"/>
+      <c r="L24" s="195"/>
+      <c r="M24" s="196"/>
       <c r="N24" s="80" t="s">
         <v>139</v>
       </c>
@@ -4588,12 +4623,12 @@
       <c r="B25" s="17">
         <v>2</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C25" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="137"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="77" t="s">
         <v>127</v>
       </c>
@@ -4601,12 +4636,12 @@
       <c r="I25" s="17">
         <v>2</v>
       </c>
-      <c r="J25" s="104" t="s">
+      <c r="J25" s="121" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="130"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="131"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="100"/>
       <c r="N25" s="85" t="s">
         <v>108</v>
       </c>
@@ -4616,12 +4651,12 @@
       <c r="B26" s="17">
         <v>3</v>
       </c>
-      <c r="C26" s="104" t="s">
+      <c r="C26" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="130"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="131"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="78" t="s">
         <v>131</v>
       </c>
@@ -4629,12 +4664,12 @@
       <c r="I26" s="17">
         <v>3</v>
       </c>
-      <c r="J26" s="239" t="s">
+      <c r="J26" s="231" t="s">
         <v>205</v>
       </c>
-      <c r="K26" s="240"/>
-      <c r="L26" s="240"/>
-      <c r="M26" s="241"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="233"/>
       <c r="N26" s="77" t="s">
         <v>127</v>
       </c>
@@ -4644,23 +4679,23 @@
       <c r="B27" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="243" t="s">
+      <c r="C27" s="209" t="s">
         <v>95</v>
       </c>
       <c r="D27" s="210"/>
       <c r="E27" s="210"/>
-      <c r="F27" s="244"/>
+      <c r="F27" s="211"/>
       <c r="G27" s="65"/>
       <c r="H27" s="44"/>
       <c r="I27" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="243" t="s">
+      <c r="J27" s="209" t="s">
         <v>95</v>
       </c>
       <c r="K27" s="210"/>
       <c r="L27" s="210"/>
-      <c r="M27" s="244"/>
+      <c r="M27" s="211"/>
       <c r="N27" s="42"/>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -4670,10 +4705,10 @@
       <c r="B28" s="21">
         <v>1</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="216"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="201"/>
       <c r="G28" s="30"/>
       <c r="H28" s="20" t="s">
         <v>25</v>
@@ -4681,10 +4716,10 @@
       <c r="I28" s="21">
         <v>1</v>
       </c>
-      <c r="J28" s="214"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
-      <c r="M28" s="216"/>
+      <c r="J28" s="208"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="201"/>
       <c r="N28" s="66"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4692,14 +4727,14 @@
       <c r="B29" s="15">
         <v>2</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136" t="s">
+      <c r="D29" s="119"/>
+      <c r="E29" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="F29" s="137"/>
+      <c r="F29" s="120"/>
       <c r="G29" s="78" t="s">
         <v>43</v>
       </c>
@@ -4707,12 +4742,12 @@
       <c r="I29" s="15">
         <v>2</v>
       </c>
-      <c r="J29" s="115"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="136" t="s">
+      <c r="J29" s="166"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="119" t="s">
         <v>142</v>
       </c>
-      <c r="M29" s="137"/>
+      <c r="M29" s="120"/>
       <c r="N29" s="78"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4720,12 +4755,12 @@
       <c r="B30" s="17">
         <v>3</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="137"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
       <c r="G30" s="85" t="s">
         <v>46</v>
       </c>
@@ -4733,12 +4768,12 @@
       <c r="I30" s="17">
         <v>3</v>
       </c>
-      <c r="J30" s="135" t="s">
+      <c r="J30" s="118" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="137"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
       <c r="N30" s="85" t="s">
         <v>46</v>
       </c>
@@ -4748,14 +4783,14 @@
       <c r="B31" s="17">
         <v>4</v>
       </c>
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136" t="s">
+      <c r="D31" s="119"/>
+      <c r="E31" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="137"/>
+      <c r="F31" s="120"/>
       <c r="G31" s="77" t="s">
         <v>138</v>
       </c>
@@ -4763,14 +4798,14 @@
       <c r="I31" s="17">
         <v>4</v>
       </c>
-      <c r="J31" s="135" t="s">
+      <c r="J31" s="118" t="s">
         <v>140</v>
       </c>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136" t="s">
+      <c r="K31" s="119"/>
+      <c r="L31" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="137"/>
+      <c r="M31" s="120"/>
       <c r="N31" s="77" t="s">
         <v>141</v>
       </c>
@@ -4780,23 +4815,23 @@
       <c r="B32" s="19">
         <v>5</v>
       </c>
-      <c r="C32" s="207"/>
-      <c r="D32" s="208"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="209"/>
+      <c r="C32" s="202"/>
+      <c r="D32" s="203"/>
+      <c r="E32" s="203"/>
+      <c r="F32" s="247"/>
       <c r="G32" s="78"/>
       <c r="H32" s="28"/>
       <c r="I32" s="19">
         <v>5</v>
       </c>
-      <c r="J32" s="132" t="s">
+      <c r="J32" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133" t="s">
+      <c r="K32" s="198"/>
+      <c r="L32" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="M32" s="134"/>
+      <c r="M32" s="199"/>
       <c r="N32" s="78" t="s">
         <v>43</v>
       </c>
@@ -4808,12 +4843,12 @@
       <c r="B33" s="21">
         <v>1</v>
       </c>
-      <c r="C33" s="217" t="s">
+      <c r="C33" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="218"/>
-      <c r="E33" s="218"/>
-      <c r="F33" s="219"/>
+      <c r="D33" s="213"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="214"/>
       <c r="G33" s="66"/>
       <c r="H33" s="29" t="s">
         <v>26</v>
@@ -4821,12 +4856,12 @@
       <c r="I33" s="21">
         <v>1</v>
       </c>
-      <c r="J33" s="217" t="s">
+      <c r="J33" s="212" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="218"/>
-      <c r="L33" s="218"/>
-      <c r="M33" s="219"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="214"/>
       <c r="N33" s="66"/>
     </row>
     <row r="34" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.4">
@@ -4834,19 +4869,19 @@
       <c r="B34" s="17">
         <v>2</v>
       </c>
-      <c r="C34" s="127"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="129"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="125"/>
       <c r="G34" s="22"/>
       <c r="H34" s="40"/>
       <c r="I34" s="17">
         <v>2</v>
       </c>
-      <c r="J34" s="127"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="129"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
+      <c r="M34" s="125"/>
       <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4854,35 +4889,35 @@
       <c r="B35" s="19">
         <v>3</v>
       </c>
-      <c r="C35" s="169"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="171"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
+      <c r="F35" s="103"/>
       <c r="G35" s="65"/>
       <c r="H35" s="32"/>
       <c r="I35" s="19">
         <v>3</v>
       </c>
-      <c r="J35" s="236"/>
-      <c r="K35" s="237"/>
-      <c r="L35" s="237"/>
-      <c r="M35" s="238"/>
+      <c r="J35" s="228"/>
+      <c r="K35" s="229"/>
+      <c r="L35" s="229"/>
+      <c r="M35" s="230"/>
       <c r="N35" s="22"/>
     </row>
     <row r="36" spans="1:14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="36"/>
       <c r="B36" s="34"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="202"/>
+      <c r="C36" s="215"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="217"/>
       <c r="G36" s="37"/>
       <c r="H36" s="36"/>
       <c r="I36" s="34"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="201"/>
-      <c r="L36" s="201"/>
-      <c r="M36" s="202"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="216"/>
+      <c r="L36" s="216"/>
+      <c r="M36" s="217"/>
       <c r="N36" s="37"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4890,12 +4925,12 @@
       <c r="B37" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="189" t="s">
+      <c r="C37" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="191"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
       <c r="G37" s="80" t="s">
         <v>129</v>
       </c>
@@ -4903,12 +4938,12 @@
       <c r="I37" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J37" s="189" t="s">
+      <c r="J37" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="K37" s="190"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="191"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="140"/>
+      <c r="M37" s="141"/>
       <c r="N37" s="80" t="s">
         <v>130</v>
       </c>
@@ -4918,12 +4953,12 @@
       <c r="B38" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="106" t="s">
+      <c r="C38" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="108"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
+      <c r="F38" s="162"/>
       <c r="G38" s="79" t="s">
         <v>127</v>
       </c>
@@ -4931,12 +4966,12 @@
       <c r="I38" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="J38" s="106" t="s">
+      <c r="J38" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="108"/>
+      <c r="K38" s="161"/>
+      <c r="L38" s="161"/>
+      <c r="M38" s="162"/>
       <c r="N38" s="79" t="s">
         <v>127</v>
       </c>
@@ -4946,23 +4981,23 @@
         <v>96</v>
       </c>
       <c r="B39" s="71"/>
-      <c r="C39" s="242" t="s">
+      <c r="C39" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="242"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="242"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
       <c r="G39" s="70"/>
       <c r="H39" s="72" t="s">
         <v>96</v>
       </c>
       <c r="I39" s="71"/>
-      <c r="J39" s="242" t="s">
+      <c r="J39" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="K39" s="242"/>
-      <c r="L39" s="242"/>
-      <c r="M39" s="242"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="207"/>
       <c r="N39" s="70"/>
     </row>
     <row r="40" spans="1:14" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -4995,16 +5030,52 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="J12:M12"/>
     <mergeCell ref="J13:M13"/>
@@ -5021,52 +5092,16 @@
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="J31:K31"/>
     <mergeCell ref="L31:M31"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:M20"/>
   </mergeCells>
   <conditionalFormatting sqref="C9:E9">
     <cfRule type="expression" priority="6">
@@ -5099,10 +5134,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 L6" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"осенний, весенний"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7 J7"/>
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7 J7" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -5110,7 +5145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -5274,10 +5309,10 @@
       <c r="A8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="61" t="s">
         <v>48</v>
       </c>
@@ -5287,10 +5322,10 @@
       <c r="H8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="157" t="s">
+      <c r="J8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="157"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="61" t="s">
         <v>49</v>
       </c>
@@ -5357,10 +5392,10 @@
       <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C11" s="252"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="253"/>
-      <c r="F11" s="254"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="286"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="287"/>
       <c r="G11" s="81"/>
       <c r="H11" s="14" t="s">
         <v>21</v>
@@ -5368,10 +5403,10 @@
       <c r="I11" s="15">
         <v>2</v>
       </c>
-      <c r="J11" s="252"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="253"/>
-      <c r="M11" s="254"/>
+      <c r="J11" s="285"/>
+      <c r="K11" s="286"/>
+      <c r="L11" s="286"/>
+      <c r="M11" s="287"/>
       <c r="N11" s="81"/>
     </row>
     <row r="12" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5379,21 +5414,21 @@
       <c r="B12" s="17">
         <v>3</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="184"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
       <c r="G12" s="22"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17">
         <v>3</v>
       </c>
-      <c r="J12" s="176" t="s">
+      <c r="J12" s="107" t="s">
         <v>162</v>
       </c>
-      <c r="K12" s="255"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="100"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="110"/>
       <c r="N12" s="77" t="s">
         <v>46</v>
       </c>
@@ -5403,12 +5438,12 @@
       <c r="B13" s="17">
         <v>4</v>
       </c>
-      <c r="C13" s="104" t="s">
+      <c r="C13" s="121" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="77" t="s">
         <v>46</v>
       </c>
@@ -5416,12 +5451,12 @@
       <c r="I13" s="17">
         <v>4</v>
       </c>
-      <c r="J13" s="176" t="s">
+      <c r="J13" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="255"/>
-      <c r="L13" s="255"/>
-      <c r="M13" s="100"/>
+      <c r="K13" s="288"/>
+      <c r="L13" s="288"/>
+      <c r="M13" s="110"/>
       <c r="N13" s="77" t="s">
         <v>46</v>
       </c>
@@ -5431,12 +5466,12 @@
       <c r="B14" s="19">
         <v>5</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="136" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="193"/>
       <c r="G14" s="83" t="s">
         <v>82</v>
       </c>
@@ -5444,10 +5479,10 @@
       <c r="I14" s="19">
         <v>5</v>
       </c>
-      <c r="J14" s="256"/>
-      <c r="K14" s="257"/>
-      <c r="L14" s="257"/>
-      <c r="M14" s="258"/>
+      <c r="J14" s="272"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="274"/>
       <c r="N14" s="83"/>
     </row>
     <row r="15" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5457,14 +5492,14 @@
       <c r="B15" s="21">
         <v>1</v>
       </c>
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="262"/>
-      <c r="E15" s="263" t="s">
+      <c r="D15" s="281"/>
+      <c r="E15" s="282" t="s">
         <v>160</v>
       </c>
-      <c r="F15" s="264"/>
+      <c r="F15" s="255"/>
       <c r="G15" s="87" t="s">
         <v>173</v>
       </c>
@@ -5474,10 +5509,10 @@
       <c r="I15" s="21">
         <v>1</v>
       </c>
-      <c r="J15" s="214"/>
-      <c r="K15" s="215"/>
-      <c r="L15" s="215"/>
-      <c r="M15" s="216"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="201"/>
       <c r="N15" s="81"/>
     </row>
     <row r="16" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5485,14 +5520,14 @@
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="249" t="s">
+      <c r="C16" s="275" t="s">
         <v>159</v>
       </c>
-      <c r="D16" s="265"/>
-      <c r="E16" s="130" t="s">
+      <c r="D16" s="284"/>
+      <c r="E16" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="130"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="86" t="s">
         <v>161</v>
       </c>
@@ -5500,12 +5535,12 @@
       <c r="I16" s="17">
         <v>2</v>
       </c>
-      <c r="J16" s="249" t="s">
+      <c r="J16" s="275" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="250"/>
-      <c r="L16" s="250"/>
-      <c r="M16" s="251"/>
+      <c r="K16" s="276"/>
+      <c r="L16" s="276"/>
+      <c r="M16" s="277"/>
       <c r="N16" s="77" t="s">
         <v>47</v>
       </c>
@@ -5515,21 +5550,21 @@
       <c r="B17" s="17">
         <v>3</v>
       </c>
-      <c r="C17" s="127"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
       <c r="G17" s="86"/>
       <c r="H17" s="16"/>
       <c r="I17" s="17">
         <v>3</v>
       </c>
-      <c r="J17" s="249" t="s">
+      <c r="J17" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="251"/>
+      <c r="K17" s="276"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="277"/>
       <c r="N17" s="77" t="s">
         <v>70</v>
       </c>
@@ -5539,21 +5574,21 @@
       <c r="B18" s="19">
         <v>4</v>
       </c>
-      <c r="C18" s="233"/>
-      <c r="D18" s="234"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="234"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="226"/>
+      <c r="F18" s="226"/>
       <c r="G18" s="43"/>
       <c r="H18" s="23"/>
       <c r="I18" s="19">
         <v>4</v>
       </c>
-      <c r="J18" s="106" t="s">
+      <c r="J18" s="160" t="s">
         <v>176</v>
       </c>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="108"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="162"/>
       <c r="N18" s="83" t="s">
         <v>82</v>
       </c>
@@ -5565,12 +5600,12 @@
       <c r="B19" s="21">
         <v>1</v>
       </c>
-      <c r="C19" s="245" t="s">
+      <c r="C19" s="204" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="246"/>
-      <c r="E19" s="246"/>
-      <c r="F19" s="248"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="283"/>
       <c r="G19" s="81" t="s">
         <v>51</v>
       </c>
@@ -5580,12 +5615,12 @@
       <c r="I19" s="21">
         <v>1</v>
       </c>
-      <c r="J19" s="245" t="s">
+      <c r="J19" s="204" t="s">
         <v>164</v>
       </c>
-      <c r="K19" s="246"/>
-      <c r="L19" s="246"/>
-      <c r="M19" s="248"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="283"/>
       <c r="N19" s="81" t="s">
         <v>51</v>
       </c>
@@ -5595,12 +5630,12 @@
       <c r="B20" s="17">
         <v>2</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="137"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
       <c r="G20" s="77" t="s">
         <v>46</v>
       </c>
@@ -5608,12 +5643,12 @@
       <c r="I20" s="17">
         <v>2</v>
       </c>
-      <c r="J20" s="104" t="s">
+      <c r="J20" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="131"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="100"/>
       <c r="N20" s="77" t="s">
         <v>51</v>
       </c>
@@ -5623,14 +5658,14 @@
       <c r="B21" s="17">
         <v>3</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136" t="s">
+      <c r="D21" s="119"/>
+      <c r="E21" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="137"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="77" t="s">
         <v>46</v>
       </c>
@@ -5638,12 +5673,12 @@
       <c r="I21" s="17">
         <v>3</v>
       </c>
-      <c r="J21" s="104" t="s">
+      <c r="J21" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="K21" s="130"/>
-      <c r="L21" s="130"/>
-      <c r="M21" s="131"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="100"/>
       <c r="N21" s="77" t="s">
         <v>51</v>
       </c>
@@ -5653,19 +5688,19 @@
       <c r="B22" s="17">
         <v>4</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
       <c r="G22" s="22"/>
       <c r="H22" s="16"/>
       <c r="I22" s="17">
         <v>4</v>
       </c>
-      <c r="J22" s="127"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
-      <c r="M22" s="129"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="125"/>
       <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5673,12 +5708,12 @@
       <c r="B23" s="19">
         <v>5</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="197" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="83" t="s">
         <v>37</v>
       </c>
@@ -5686,12 +5721,12 @@
       <c r="I23" s="19">
         <v>5</v>
       </c>
-      <c r="J23" s="132" t="s">
+      <c r="J23" s="197" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="134"/>
+      <c r="K23" s="198"/>
+      <c r="L23" s="198"/>
+      <c r="M23" s="199"/>
       <c r="N23" s="83" t="s">
         <v>37</v>
       </c>
@@ -5703,10 +5738,10 @@
       <c r="B24" s="21">
         <v>2</v>
       </c>
-      <c r="C24" s="259"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="261"/>
+      <c r="C24" s="278"/>
+      <c r="D24" s="279"/>
+      <c r="E24" s="279"/>
+      <c r="F24" s="280"/>
       <c r="G24" s="39"/>
       <c r="H24" s="20" t="s">
         <v>24</v>
@@ -5714,12 +5749,12 @@
       <c r="I24" s="21">
         <v>2</v>
       </c>
-      <c r="J24" s="189" t="s">
+      <c r="J24" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="K24" s="190"/>
-      <c r="L24" s="190"/>
-      <c r="M24" s="191"/>
+      <c r="K24" s="140"/>
+      <c r="L24" s="140"/>
+      <c r="M24" s="141"/>
       <c r="N24" s="81" t="s">
         <v>46</v>
       </c>
@@ -5729,12 +5764,12 @@
       <c r="B25" s="17">
         <v>3</v>
       </c>
-      <c r="C25" s="135" t="s">
+      <c r="C25" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="137"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="86" t="s">
         <v>46</v>
       </c>
@@ -5742,12 +5777,12 @@
       <c r="I25" s="17">
         <v>3</v>
       </c>
-      <c r="J25" s="135" t="s">
+      <c r="J25" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="137"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="119"/>
+      <c r="M25" s="120"/>
       <c r="N25" s="77" t="s">
         <v>46</v>
       </c>
@@ -5757,14 +5792,14 @@
       <c r="B26" s="17">
         <v>4</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136" t="s">
+      <c r="D26" s="119"/>
+      <c r="E26" s="119" t="s">
         <v>168</v>
       </c>
-      <c r="F26" s="137"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="86" t="s">
         <v>169</v>
       </c>
@@ -5772,10 +5807,10 @@
       <c r="I26" s="17">
         <v>4</v>
       </c>
-      <c r="J26" s="115"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="168"/>
       <c r="N26" s="77"/>
     </row>
     <row r="27" spans="1:15" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5783,14 +5818,14 @@
       <c r="B27" s="19">
         <v>5</v>
       </c>
-      <c r="C27" s="272" t="s">
+      <c r="C27" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273" t="s">
+      <c r="D27" s="270"/>
+      <c r="E27" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="274"/>
+      <c r="F27" s="271"/>
       <c r="G27" s="84" t="s">
         <v>170</v>
       </c>
@@ -5798,10 +5833,10 @@
       <c r="I27" s="19">
         <v>5</v>
       </c>
-      <c r="J27" s="169"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="171"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="103"/>
       <c r="N27" s="42"/>
     </row>
     <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5811,12 +5846,12 @@
       <c r="B28" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="226" t="s">
+      <c r="C28" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="227"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="228"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="220"/>
       <c r="G28" s="30"/>
       <c r="H28" s="14" t="s">
         <v>25</v>
@@ -5824,12 +5859,12 @@
       <c r="I28" s="15">
         <v>1.2</v>
       </c>
-      <c r="J28" s="266" t="s">
+      <c r="J28" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="K28" s="267"/>
-      <c r="L28" s="267"/>
-      <c r="M28" s="268"/>
+      <c r="K28" s="264"/>
+      <c r="L28" s="264"/>
+      <c r="M28" s="265"/>
       <c r="N28" s="66"/>
     </row>
     <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5837,12 +5872,12 @@
       <c r="B29" s="17">
         <v>4</v>
       </c>
-      <c r="C29" s="135" t="s">
+      <c r="C29" s="118" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="137"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120"/>
       <c r="G29" s="77" t="s">
         <v>129</v>
       </c>
@@ -5850,10 +5885,10 @@
       <c r="I29" s="17">
         <v>4</v>
       </c>
-      <c r="J29" s="127"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="129"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
+      <c r="M29" s="125"/>
       <c r="N29" s="77"/>
       <c r="O29" s="47"/>
     </row>
@@ -5862,14 +5897,14 @@
       <c r="B30" s="17">
         <v>5</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="118" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136" t="s">
+      <c r="D30" s="119"/>
+      <c r="E30" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="F30" s="137"/>
+      <c r="F30" s="120"/>
       <c r="G30" s="77" t="s">
         <v>54</v>
       </c>
@@ -5877,12 +5912,12 @@
       <c r="I30" s="17">
         <v>5</v>
       </c>
-      <c r="J30" s="104" t="s">
+      <c r="J30" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="130"/>
-      <c r="L30" s="130"/>
-      <c r="M30" s="131"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="100"/>
       <c r="N30" s="77" t="s">
         <v>129</v>
       </c>
@@ -5892,14 +5927,14 @@
       <c r="B31" s="19">
         <v>6</v>
       </c>
-      <c r="C31" s="269" t="s">
+      <c r="C31" s="266" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="270"/>
-      <c r="E31" s="270" t="s">
+      <c r="D31" s="267"/>
+      <c r="E31" s="267" t="s">
         <v>179</v>
       </c>
-      <c r="F31" s="271"/>
+      <c r="F31" s="268"/>
       <c r="G31" s="83" t="s">
         <v>54</v>
       </c>
@@ -5907,12 +5942,12 @@
       <c r="I31" s="19">
         <v>6</v>
       </c>
-      <c r="J31" s="283" t="s">
+      <c r="J31" s="257" t="s">
         <v>158</v>
       </c>
-      <c r="K31" s="284"/>
-      <c r="L31" s="284"/>
-      <c r="M31" s="285"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="258"/>
+      <c r="M31" s="259"/>
       <c r="N31" s="83" t="s">
         <v>203</v>
       </c>
@@ -5924,12 +5959,12 @@
       <c r="B32" s="21">
         <v>1</v>
       </c>
-      <c r="C32" s="286" t="s">
+      <c r="C32" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="287"/>
-      <c r="E32" s="287"/>
-      <c r="F32" s="288"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="262"/>
       <c r="G32" s="66"/>
       <c r="H32" s="29" t="s">
         <v>26</v>
@@ -5937,12 +5972,12 @@
       <c r="I32" s="21">
         <v>1</v>
       </c>
-      <c r="J32" s="138" t="s">
+      <c r="J32" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="140"/>
+      <c r="K32" s="164"/>
+      <c r="L32" s="164"/>
+      <c r="M32" s="165"/>
       <c r="N32" s="66"/>
     </row>
     <row r="33" spans="1:14" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5950,35 +5985,35 @@
       <c r="B33" s="19">
         <v>2</v>
       </c>
-      <c r="C33" s="169"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="171"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="103"/>
       <c r="G33" s="65"/>
       <c r="H33" s="32"/>
       <c r="I33" s="19">
         <v>2</v>
       </c>
-      <c r="J33" s="169"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="171"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="103"/>
       <c r="N33" s="65"/>
     </row>
     <row r="34" spans="1:14" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="36"/>
       <c r="B34" s="34"/>
-      <c r="C34" s="278"/>
-      <c r="D34" s="279"/>
-      <c r="E34" s="279"/>
-      <c r="F34" s="280"/>
+      <c r="C34" s="251"/>
+      <c r="D34" s="252"/>
+      <c r="E34" s="252"/>
+      <c r="F34" s="253"/>
       <c r="G34" s="37"/>
       <c r="H34" s="36"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="275"/>
-      <c r="K34" s="276"/>
-      <c r="L34" s="276"/>
-      <c r="M34" s="277"/>
+      <c r="J34" s="248"/>
+      <c r="K34" s="249"/>
+      <c r="L34" s="249"/>
+      <c r="M34" s="250"/>
       <c r="N34" s="37"/>
     </row>
     <row r="35" spans="1:14" s="67" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -5986,12 +6021,12 @@
       <c r="B35" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="281" t="s">
+      <c r="C35" s="254" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="264"/>
-      <c r="E35" s="264"/>
-      <c r="F35" s="282"/>
+      <c r="D35" s="255"/>
+      <c r="E35" s="255"/>
+      <c r="F35" s="256"/>
       <c r="G35" s="89" t="s">
         <v>129</v>
       </c>
@@ -5999,12 +6034,12 @@
       <c r="I35" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="281" t="s">
+      <c r="J35" s="254" t="s">
         <v>83</v>
       </c>
-      <c r="K35" s="264"/>
-      <c r="L35" s="264"/>
-      <c r="M35" s="282"/>
+      <c r="K35" s="255"/>
+      <c r="L35" s="255"/>
+      <c r="M35" s="256"/>
       <c r="N35" s="89" t="s">
         <v>129</v>
       </c>
@@ -6014,12 +6049,12 @@
       <c r="B36" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="118" t="s">
+      <c r="C36" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="120"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="192"/>
+      <c r="F36" s="193"/>
       <c r="G36" s="83" t="s">
         <v>82</v>
       </c>
@@ -6027,12 +6062,12 @@
       <c r="I36" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="J36" s="118" t="s">
+      <c r="J36" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="K36" s="119"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="120"/>
+      <c r="K36" s="192"/>
+      <c r="L36" s="192"/>
+      <c r="M36" s="193"/>
       <c r="N36" s="83" t="s">
         <v>82</v>
       </c>
@@ -6042,23 +6077,23 @@
         <v>96</v>
       </c>
       <c r="B37" s="71"/>
-      <c r="C37" s="242" t="s">
+      <c r="C37" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="242"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="242"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
       <c r="G37" s="70"/>
       <c r="H37" s="72" t="s">
         <v>96</v>
       </c>
       <c r="I37" s="71"/>
-      <c r="J37" s="242" t="s">
+      <c r="J37" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="K37" s="242"/>
-      <c r="L37" s="242"/>
-      <c r="M37" s="242"/>
+      <c r="K37" s="207"/>
+      <c r="L37" s="207"/>
+      <c r="M37" s="207"/>
       <c r="N37" s="70"/>
     </row>
     <row r="38" spans="1:14" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -6091,6 +6126,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="J27:M27"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="J37:M37"/>
     <mergeCell ref="J30:M30"/>
@@ -6107,53 +6189,6 @@
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="J36:M36"/>
     <mergeCell ref="C36:F36"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J22:M22"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="expression" priority="8">
@@ -6196,8 +6231,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7 J7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 L6">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7 J7" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 L6" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"осенний, весенний"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6207,7 +6242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
@@ -6371,10 +6406,10 @@
       <c r="A8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="157"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="61" t="s">
         <v>92</v>
       </c>
@@ -6384,10 +6419,10 @@
       <c r="H8" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="157" t="s">
+      <c r="J8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="157"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="61" t="s">
         <v>93</v>
       </c>
@@ -6454,10 +6489,10 @@
       <c r="B11" s="15">
         <v>2</v>
       </c>
-      <c r="C11" s="303"/>
-      <c r="D11" s="304"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="305"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="324"/>
+      <c r="E11" s="324"/>
+      <c r="F11" s="325"/>
       <c r="G11" s="39"/>
       <c r="H11" s="14" t="s">
         <v>21</v>
@@ -6465,12 +6500,12 @@
       <c r="I11" s="15">
         <v>3</v>
       </c>
-      <c r="J11" s="164" t="s">
+      <c r="J11" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="K11" s="165"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="166"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="151"/>
       <c r="N11" s="81" t="s">
         <v>88</v>
       </c>
@@ -6480,10 +6515,10 @@
       <c r="B12" s="17">
         <v>3</v>
       </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="184"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
       <c r="G12" s="31"/>
       <c r="H12" s="16"/>
       <c r="I12" s="17">
@@ -6504,12 +6539,12 @@
       <c r="B13" s="17">
         <v>4</v>
       </c>
-      <c r="C13" s="306" t="s">
+      <c r="C13" s="295" t="s">
         <v>185</v>
       </c>
-      <c r="D13" s="307"/>
-      <c r="E13" s="307"/>
-      <c r="F13" s="308"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="297"/>
       <c r="G13" s="86" t="s">
         <v>45</v>
       </c>
@@ -6532,12 +6567,12 @@
       <c r="B14" s="17">
         <v>5</v>
       </c>
-      <c r="C14" s="300" t="s">
+      <c r="C14" s="320" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="301"/>
-      <c r="E14" s="301"/>
-      <c r="F14" s="302"/>
+      <c r="D14" s="321"/>
+      <c r="E14" s="321"/>
+      <c r="F14" s="322"/>
       <c r="G14" s="84" t="s">
         <v>45</v>
       </c>
@@ -6562,10 +6597,10 @@
       <c r="B15" s="21">
         <v>2</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="216"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="201"/>
       <c r="G15" s="30"/>
       <c r="H15" s="20" t="s">
         <v>22</v>
@@ -6573,10 +6608,10 @@
       <c r="I15" s="21">
         <v>2</v>
       </c>
-      <c r="J15" s="309"/>
-      <c r="K15" s="310"/>
-      <c r="L15" s="310"/>
-      <c r="M15" s="311"/>
+      <c r="J15" s="310"/>
+      <c r="K15" s="311"/>
+      <c r="L15" s="311"/>
+      <c r="M15" s="312"/>
       <c r="N15" s="66"/>
     </row>
     <row r="16" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6584,12 +6619,12 @@
       <c r="B16" s="17">
         <v>3</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="118" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="136"/>
-      <c r="E16" s="136"/>
-      <c r="F16" s="137"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="77" t="s">
         <v>47</v>
       </c>
@@ -6597,12 +6632,12 @@
       <c r="I16" s="17">
         <v>3</v>
       </c>
-      <c r="J16" s="104" t="s">
+      <c r="J16" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="K16" s="130"/>
-      <c r="L16" s="130"/>
-      <c r="M16" s="131"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="100"/>
       <c r="N16" s="77" t="s">
         <v>47</v>
       </c>
@@ -6612,12 +6647,12 @@
       <c r="B17" s="17">
         <v>4</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="118" t="s">
         <v>206</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="137"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
       <c r="G17" s="77" t="s">
         <v>45</v>
       </c>
@@ -6625,12 +6660,12 @@
       <c r="I17" s="17">
         <v>4</v>
       </c>
-      <c r="J17" s="104" t="s">
+      <c r="J17" s="121" t="s">
         <v>182</v>
       </c>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="131"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="100"/>
       <c r="N17" s="77" t="s">
         <v>47</v>
       </c>
@@ -6640,21 +6675,21 @@
       <c r="B18" s="27">
         <v>5</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="131"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="85"/>
       <c r="H18" s="44"/>
       <c r="I18" s="27">
         <v>5</v>
       </c>
-      <c r="J18" s="104" t="s">
+      <c r="J18" s="121" t="s">
         <v>181</v>
       </c>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="131"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="100"/>
       <c r="N18" s="85" t="s">
         <v>45</v>
       </c>
@@ -6664,21 +6699,21 @@
       <c r="B19" s="19">
         <v>6</v>
       </c>
-      <c r="C19" s="292"/>
-      <c r="D19" s="293"/>
-      <c r="E19" s="293"/>
-      <c r="F19" s="294"/>
+      <c r="C19" s="326"/>
+      <c r="D19" s="327"/>
+      <c r="E19" s="327"/>
+      <c r="F19" s="328"/>
       <c r="G19" s="42"/>
       <c r="H19" s="23"/>
       <c r="I19" s="19">
         <v>6</v>
       </c>
-      <c r="J19" s="203" t="s">
+      <c r="J19" s="243" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="312"/>
-      <c r="L19" s="312"/>
-      <c r="M19" s="206"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="246"/>
       <c r="N19" s="83" t="s">
         <v>45</v>
       </c>
@@ -6690,12 +6725,12 @@
       <c r="B20" s="21">
         <v>1</v>
       </c>
-      <c r="C20" s="298"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="246" t="s">
+      <c r="C20" s="332"/>
+      <c r="D20" s="333"/>
+      <c r="E20" s="205" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="248"/>
+      <c r="F20" s="283"/>
       <c r="G20" s="96" t="s">
         <v>44</v>
       </c>
@@ -6705,12 +6740,12 @@
       <c r="I20" s="21">
         <v>3</v>
       </c>
-      <c r="J20" s="138" t="s">
+      <c r="J20" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="140"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="165"/>
       <c r="N20" s="66"/>
     </row>
     <row r="21" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6718,12 +6753,12 @@
       <c r="B21" s="17">
         <v>2</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136" t="s">
+      <c r="C21" s="118"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="F21" s="137"/>
+      <c r="F21" s="120"/>
       <c r="G21" s="98" t="s">
         <v>45</v>
       </c>
@@ -6731,10 +6766,10 @@
       <c r="I21" s="17">
         <v>4</v>
       </c>
-      <c r="J21" s="127"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
-      <c r="M21" s="129"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="125"/>
       <c r="N21" s="77"/>
     </row>
     <row r="22" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6742,19 +6777,19 @@
       <c r="B22" s="17">
         <v>3</v>
       </c>
-      <c r="C22" s="135"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="137"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="98"/>
       <c r="H22" s="92"/>
       <c r="I22" s="17">
         <v>5</v>
       </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="168"/>
       <c r="N22" s="77"/>
     </row>
     <row r="23" spans="1:14" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6762,12 +6797,12 @@
       <c r="B23" s="17">
         <v>4</v>
       </c>
-      <c r="C23" s="132" t="s">
+      <c r="C23" s="197" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="134"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="95" t="s">
         <v>54</v>
       </c>
@@ -6775,10 +6810,10 @@
       <c r="I23" s="17">
         <v>6</v>
       </c>
-      <c r="J23" s="207"/>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
-      <c r="M23" s="209"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="203"/>
+      <c r="L23" s="203"/>
+      <c r="M23" s="247"/>
       <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6788,12 +6823,12 @@
       <c r="B24" s="21">
         <v>1</v>
       </c>
-      <c r="C24" s="295" t="s">
+      <c r="C24" s="329" t="s">
         <v>189</v>
       </c>
-      <c r="D24" s="296"/>
-      <c r="E24" s="296"/>
-      <c r="F24" s="297"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="331"/>
       <c r="G24" s="97" t="s">
         <v>47</v>
       </c>
@@ -6803,10 +6838,10 @@
       <c r="I24" s="21">
         <v>2</v>
       </c>
-      <c r="J24" s="309"/>
-      <c r="K24" s="310"/>
-      <c r="L24" s="310"/>
-      <c r="M24" s="311"/>
+      <c r="J24" s="310"/>
+      <c r="K24" s="311"/>
+      <c r="L24" s="311"/>
+      <c r="M24" s="312"/>
       <c r="N24" s="66"/>
     </row>
     <row r="25" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6814,14 +6849,14 @@
       <c r="B25" s="17">
         <v>2</v>
       </c>
-      <c r="C25" s="289" t="s">
+      <c r="C25" s="298" t="s">
         <v>208</v>
       </c>
-      <c r="D25" s="290"/>
-      <c r="E25" s="290" t="s">
+      <c r="D25" s="299"/>
+      <c r="E25" s="299" t="s">
         <v>221</v>
       </c>
-      <c r="F25" s="291"/>
+      <c r="F25" s="300"/>
       <c r="G25" s="77" t="s">
         <v>212</v>
       </c>
@@ -6829,10 +6864,10 @@
       <c r="I25" s="17">
         <v>3</v>
       </c>
-      <c r="J25" s="306"/>
-      <c r="K25" s="307"/>
-      <c r="L25" s="307"/>
-      <c r="M25" s="308"/>
+      <c r="J25" s="295"/>
+      <c r="K25" s="296"/>
+      <c r="L25" s="296"/>
+      <c r="M25" s="297"/>
       <c r="N25" s="77"/>
     </row>
     <row r="26" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6840,14 +6875,14 @@
       <c r="B26" s="27">
         <v>3</v>
       </c>
-      <c r="C26" s="289" t="s">
+      <c r="C26" s="298" t="s">
         <v>210</v>
       </c>
-      <c r="D26" s="290"/>
-      <c r="E26" s="290" t="s">
+      <c r="D26" s="299"/>
+      <c r="E26" s="299" t="s">
         <v>209</v>
       </c>
-      <c r="F26" s="291"/>
+      <c r="F26" s="300"/>
       <c r="G26" s="98" t="s">
         <v>211</v>
       </c>
@@ -6855,12 +6890,12 @@
       <c r="I26" s="27">
         <v>4</v>
       </c>
-      <c r="J26" s="306" t="s">
+      <c r="J26" s="295" t="s">
         <v>90</v>
       </c>
-      <c r="K26" s="307"/>
-      <c r="L26" s="307"/>
-      <c r="M26" s="308"/>
+      <c r="K26" s="296"/>
+      <c r="L26" s="296"/>
+      <c r="M26" s="297"/>
       <c r="N26" s="77" t="s">
         <v>44</v>
       </c>
@@ -6870,12 +6905,12 @@
       <c r="B27" s="27">
         <v>4</v>
       </c>
-      <c r="C27" s="289" t="s">
+      <c r="C27" s="298" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="290"/>
-      <c r="E27" s="290"/>
-      <c r="F27" s="291"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="299"/>
+      <c r="F27" s="300"/>
       <c r="G27" s="98" t="s">
         <v>44</v>
       </c>
@@ -6883,12 +6918,12 @@
       <c r="I27" s="27">
         <v>5</v>
       </c>
-      <c r="J27" s="306" t="s">
+      <c r="J27" s="295" t="s">
         <v>190</v>
       </c>
-      <c r="K27" s="307"/>
-      <c r="L27" s="307"/>
-      <c r="M27" s="308"/>
+      <c r="K27" s="296"/>
+      <c r="L27" s="296"/>
+      <c r="M27" s="297"/>
       <c r="N27" s="98" t="s">
         <v>44</v>
       </c>
@@ -6898,19 +6933,19 @@
       <c r="B28" s="19">
         <v>5</v>
       </c>
-      <c r="C28" s="207"/>
-      <c r="D28" s="208"/>
-      <c r="E28" s="208"/>
-      <c r="F28" s="209"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="247"/>
       <c r="G28" s="22"/>
       <c r="H28" s="23"/>
       <c r="I28" s="19">
         <v>6</v>
       </c>
-      <c r="J28" s="322"/>
-      <c r="K28" s="323"/>
-      <c r="L28" s="323"/>
-      <c r="M28" s="324"/>
+      <c r="J28" s="334"/>
+      <c r="K28" s="335"/>
+      <c r="L28" s="335"/>
+      <c r="M28" s="336"/>
       <c r="N28" s="77"/>
     </row>
     <row r="29" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6920,12 +6955,12 @@
       <c r="B29" s="21">
         <v>4</v>
       </c>
-      <c r="C29" s="172" t="s">
+      <c r="C29" s="155" t="s">
         <v>214</v>
       </c>
-      <c r="D29" s="173"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="261"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="279"/>
+      <c r="F29" s="280"/>
       <c r="G29" s="96" t="s">
         <v>44</v>
       </c>
@@ -6935,10 +6970,10 @@
       <c r="I29" s="21">
         <v>1</v>
       </c>
-      <c r="J29" s="325"/>
-      <c r="K29" s="326"/>
-      <c r="L29" s="326"/>
-      <c r="M29" s="327"/>
+      <c r="J29" s="304"/>
+      <c r="K29" s="305"/>
+      <c r="L29" s="305"/>
+      <c r="M29" s="306"/>
       <c r="N29" s="87"/>
     </row>
     <row r="30" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6946,12 +6981,12 @@
       <c r="B30" s="17">
         <v>5</v>
       </c>
-      <c r="C30" s="135" t="s">
+      <c r="C30" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="137"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
       <c r="G30" s="77" t="s">
         <v>44</v>
       </c>
@@ -6959,10 +6994,10 @@
       <c r="I30" s="17">
         <v>2</v>
       </c>
-      <c r="J30" s="319"/>
-      <c r="K30" s="320"/>
-      <c r="L30" s="320"/>
-      <c r="M30" s="321"/>
+      <c r="J30" s="307"/>
+      <c r="K30" s="308"/>
+      <c r="L30" s="308"/>
+      <c r="M30" s="309"/>
       <c r="N30" s="82"/>
     </row>
     <row r="31" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6970,12 +7005,12 @@
       <c r="B31" s="17">
         <v>6</v>
       </c>
-      <c r="C31" s="135" t="s">
+      <c r="C31" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="137"/>
+      <c r="D31" s="119"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
       <c r="G31" s="98" t="s">
         <v>44</v>
       </c>
@@ -6983,10 +7018,10 @@
       <c r="I31" s="17">
         <v>3</v>
       </c>
-      <c r="J31" s="319"/>
-      <c r="K31" s="320"/>
-      <c r="L31" s="320"/>
-      <c r="M31" s="321"/>
+      <c r="J31" s="307"/>
+      <c r="K31" s="308"/>
+      <c r="L31" s="308"/>
+      <c r="M31" s="309"/>
       <c r="N31" s="77"/>
     </row>
     <row r="32" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6994,12 +7029,12 @@
       <c r="B32" s="19">
         <v>7</v>
       </c>
-      <c r="C32" s="333" t="s">
+      <c r="C32" s="291" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="334"/>
-      <c r="E32" s="335"/>
-      <c r="F32" s="336"/>
+      <c r="D32" s="292"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="294"/>
       <c r="G32" s="95" t="s">
         <v>100</v>
       </c>
@@ -7024,14 +7059,14 @@
       <c r="B33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="245" t="s">
+      <c r="C33" s="204" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="246"/>
-      <c r="E33" s="246" t="s">
+      <c r="D33" s="205"/>
+      <c r="E33" s="205" t="s">
         <v>220</v>
       </c>
-      <c r="F33" s="248"/>
+      <c r="F33" s="283"/>
       <c r="G33" s="78" t="s">
         <v>218</v>
       </c>
@@ -7041,10 +7076,10 @@
       <c r="I33" s="15">
         <v>1</v>
       </c>
-      <c r="J33" s="325"/>
-      <c r="K33" s="326"/>
-      <c r="L33" s="326"/>
-      <c r="M33" s="327"/>
+      <c r="J33" s="304"/>
+      <c r="K33" s="305"/>
+      <c r="L33" s="305"/>
+      <c r="M33" s="306"/>
       <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
@@ -7052,12 +7087,12 @@
       <c r="B34" s="17">
         <v>2</v>
       </c>
-      <c r="C34" s="239" t="s">
+      <c r="C34" s="231" t="s">
         <v>192</v>
       </c>
-      <c r="D34" s="240"/>
-      <c r="E34" s="240"/>
-      <c r="F34" s="241"/>
+      <c r="D34" s="232"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="233"/>
       <c r="G34" s="77" t="s">
         <v>55</v>
       </c>
@@ -7065,12 +7100,12 @@
       <c r="I34" s="17">
         <v>2</v>
       </c>
-      <c r="J34" s="328" t="s">
+      <c r="J34" s="301" t="s">
         <v>192</v>
       </c>
-      <c r="K34" s="329"/>
-      <c r="L34" s="329"/>
-      <c r="M34" s="330"/>
+      <c r="K34" s="302"/>
+      <c r="L34" s="302"/>
+      <c r="M34" s="303"/>
       <c r="N34" s="77" t="s">
         <v>55</v>
       </c>
@@ -7080,12 +7115,12 @@
       <c r="B35" s="27">
         <v>3</v>
       </c>
-      <c r="C35" s="239" t="s">
+      <c r="C35" s="231" t="s">
         <v>194</v>
       </c>
-      <c r="D35" s="240"/>
-      <c r="E35" s="240"/>
-      <c r="F35" s="241"/>
+      <c r="D35" s="232"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="233"/>
       <c r="G35" s="85" t="s">
         <v>100</v>
       </c>
@@ -7093,12 +7128,12 @@
       <c r="I35" s="27">
         <v>3</v>
       </c>
-      <c r="J35" s="328" t="s">
+      <c r="J35" s="301" t="s">
         <v>193</v>
       </c>
-      <c r="K35" s="329"/>
-      <c r="L35" s="329"/>
-      <c r="M35" s="330"/>
+      <c r="K35" s="302"/>
+      <c r="L35" s="302"/>
+      <c r="M35" s="303"/>
       <c r="N35" s="85" t="s">
         <v>55</v>
       </c>
@@ -7108,12 +7143,12 @@
       <c r="B36" s="27">
         <v>4</v>
       </c>
-      <c r="C36" s="331"/>
-      <c r="D36" s="332"/>
-      <c r="E36" s="240" t="s">
+      <c r="C36" s="289"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="232" t="s">
         <v>216</v>
       </c>
-      <c r="F36" s="241"/>
+      <c r="F36" s="233"/>
       <c r="G36" s="85" t="s">
         <v>55</v>
       </c>
@@ -7121,12 +7156,12 @@
       <c r="I36" s="27">
         <v>4</v>
       </c>
-      <c r="J36" s="104" t="s">
+      <c r="J36" s="121" t="s">
         <v>195</v>
       </c>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="131"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="100"/>
       <c r="N36" s="85" t="s">
         <v>100</v>
       </c>
@@ -7136,21 +7171,21 @@
       <c r="B37" s="45">
         <v>5</v>
       </c>
-      <c r="C37" s="207"/>
-      <c r="D37" s="208"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="209"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="247"/>
       <c r="G37" s="83"/>
       <c r="H37" s="41"/>
       <c r="I37" s="45">
         <v>5</v>
       </c>
-      <c r="J37" s="118" t="s">
+      <c r="J37" s="136" t="s">
         <v>184</v>
       </c>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="120"/>
+      <c r="K37" s="192"/>
+      <c r="L37" s="192"/>
+      <c r="M37" s="193"/>
       <c r="N37" s="83" t="s">
         <v>100</v>
       </c>
@@ -7185,55 +7220,6 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="J36:M36"/>
     <mergeCell ref="J18:M18"/>
@@ -7250,6 +7236,55 @@
     <mergeCell ref="J25:M25"/>
     <mergeCell ref="J28:M28"/>
     <mergeCell ref="J29:M29"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <conditionalFormatting sqref="E9">
     <cfRule type="expression" priority="10">
@@ -7287,10 +7322,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 L6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6 L6" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"осенний, весенний"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7 J7"/>
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="C7 J7" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
